--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_Boss_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_Boss_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A58CF3-A9E0-444F-8E0C-C08EC2D95119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9166E38-B892-468B-99F5-8B391D4913AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="367">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>狼</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>黑崖狼穴狼王</t>
   </si>
   <si>
@@ -129,13 +126,7 @@
     <t>dg_skill:dg水流打击,1</t>
   </si>
   <si>
-    <t>BOSS苏德</t>
-  </si>
-  <si>
     <t>火法师苏德</t>
-  </si>
-  <si>
-    <t>Firemaster Subhan</t>
   </si>
   <si>
     <t>dg_skill:dg烈焰打击,1
@@ -157,16 +148,10 @@
     <t>阿尔斯楞</t>
   </si>
   <si>
-    <t>Anass</t>
-  </si>
-  <si>
     <t>dg_skill:dg狼王攻击,1
 attached_script:BOSS狼王_基础挂载</t>
   </si>
   <si>
-    <t>BOSS阿希格</t>
-  </si>
-  <si>
     <t>阿希格</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
 attached_script:BOSS阿希格_基础挂载</t>
   </si>
   <si>
-    <t>BOSS贺希格</t>
-  </si>
-  <si>
     <t>贺希格</t>
   </si>
   <si>
@@ -245,9 +227,6 @@
 attached_script:BOSS_枪骑士挂载</t>
   </si>
   <si>
-    <t>BOSS马</t>
-  </si>
-  <si>
     <t>马</t>
   </si>
   <si>
@@ -270,9 +249,6 @@
   </si>
   <si>
     <t>dg_skill:T冰矛冰公主,2</t>
-  </si>
-  <si>
-    <t>BOSS追风</t>
   </si>
   <si>
     <t>追风</t>
@@ -343,9 +319,6 @@
     <t>BOSS巨型火魔人2</t>
   </si>
   <si>
-    <t>BOSS萧雅</t>
-  </si>
-  <si>
     <t>萧雅</t>
   </si>
   <si>
@@ -358,18 +331,12 @@
     <t>怪物雾依</t>
   </si>
   <si>
-    <t>BOSS幕牙</t>
-  </si>
-  <si>
     <t>幕牙</t>
   </si>
   <si>
     <t>dg_skill:黑暗弹三,1</t>
   </si>
   <si>
-    <t>BOSS阿楚</t>
-  </si>
-  <si>
     <t>阿楚</t>
   </si>
   <si>
@@ -385,18 +352,12 @@
     <t>attached_script:BOSS蛮族战神5</t>
   </si>
   <si>
-    <t>BOSS马契</t>
-  </si>
-  <si>
     <t>马契</t>
   </si>
   <si>
     <t>Muna</t>
   </si>
   <si>
-    <t>BOSS巨蛇</t>
-  </si>
-  <si>
     <t>巨蛇</t>
   </si>
   <si>
@@ -413,9 +374,6 @@
   </si>
   <si>
     <t>魔狼图腾·极</t>
-  </si>
-  <si>
-    <t>Canis Totem: Ultra</t>
   </si>
   <si>
     <t>dg_skill:NEW野性之魂魔狼普攻,1</t>
@@ -473,9 +431,6 @@
     <t>怪蜥蜴</t>
   </si>
   <si>
-    <t>BOSS莫尼</t>
-  </si>
-  <si>
     <t>莫尼</t>
   </si>
   <si>
@@ -526,15 +481,9 @@
 attached_script:新主线沙漠巫婆</t>
   </si>
   <si>
-    <t>BOSS阿月</t>
-  </si>
-  <si>
     <t>阿月</t>
   </si>
   <si>
-    <t>Isra</t>
-  </si>
-  <si>
     <t>dg_skill:射月矢,1</t>
   </si>
   <si>
@@ -568,28 +517,13 @@
     <t>dg_skill:剑豪BOSS黑暗弹三</t>
   </si>
   <si>
-    <t>BOSS剑豪</t>
-  </si>
-  <si>
     <t>剑豪</t>
   </si>
   <si>
-    <t>BOSS封凛</t>
-  </si>
-  <si>
     <t>雪山战神-封凛</t>
   </si>
   <si>
-    <t>Alpine Warmonger - Ruha</t>
-  </si>
-  <si>
-    <t>BOSS霍驹</t>
-  </si>
-  <si>
     <t>雄鹰领主-霍驹</t>
-  </si>
-  <si>
-    <t>Nasir Sultan - Husnu</t>
   </si>
   <si>
     <t>BOSS长头发壮汉</t>
@@ -630,9 +564,6 @@
 attached_script:大个子火魔BOSS</t>
   </si>
   <si>
-    <t>BOSS咕噜</t>
-  </si>
-  <si>
     <t>咕噜首领</t>
   </si>
   <si>
@@ -640,9 +571,6 @@
 attached_script:废墟世界BOSS</t>
   </si>
   <si>
-    <t>BOSS霍翎</t>
-  </si>
-  <si>
     <t>霍翎</t>
   </si>
   <si>
@@ -653,9 +581,6 @@
 attached_script:霍翎战斗</t>
   </si>
   <si>
-    <t>BOSS黑火</t>
-  </si>
-  <si>
     <t>黑火</t>
   </si>
   <si>
@@ -669,12 +594,6 @@
     <t>埃尔修斯</t>
   </si>
   <si>
-    <t>Aloysius</t>
-  </si>
-  <si>
-    <t>BOSS银珊</t>
-  </si>
-  <si>
     <t>银珊</t>
   </si>
   <si>
@@ -687,9 +606,6 @@
     <t>BOSS堕落者黑火</t>
   </si>
   <si>
-    <t>BOSS大蜘蛛</t>
-  </si>
-  <si>
     <t>大蜘蛛</t>
   </si>
   <si>
@@ -766,15 +682,6 @@
   </si>
   <si>
     <t>BOSS雄鹰守卫2</t>
-  </si>
-  <si>
-    <t>BOSS雄鹰守卫3</t>
-  </si>
-  <si>
-    <t>BOSS雄鹰守卫4</t>
-  </si>
-  <si>
-    <t>BOSS雄鹰守卫5</t>
   </si>
   <si>
     <t>BOSS蛮牛守卫1</t>
@@ -859,18 +766,12 @@
     <t>Kun'na</t>
   </si>
   <si>
-    <t>BOSS巴洛</t>
-  </si>
-  <si>
     <t>巴洛</t>
   </si>
   <si>
     <t>Burak</t>
   </si>
   <si>
-    <t>BOSS国锡</t>
-  </si>
-  <si>
     <t>国锡</t>
   </si>
   <si>
@@ -904,9 +805,6 @@
     <t>dg_skill:冰矛,1</t>
   </si>
   <si>
-    <t>BOSS巫灵</t>
-  </si>
-  <si>
     <t>巫灵</t>
   </si>
   <si>
@@ -922,9 +820,6 @@
     <t>风刃巫师</t>
   </si>
   <si>
-    <t>BOSS风刃长老</t>
-  </si>
-  <si>
     <t>风刃长老</t>
   </si>
   <si>
@@ -1003,218 +898,266 @@
     <t>Lobo Alfa</t>
   </si>
   <si>
-    <t>Canis Gris</t>
-  </si>
-  <si>
-    <t>Capitán de la Hermandad</t>
-  </si>
-  <si>
-    <t>Líder de incendios forestales</t>
-  </si>
-  <si>
-    <t>Capitán de Incendios Forestales</t>
-  </si>
-  <si>
-    <t>Fuego Salvaje</t>
-  </si>
-  <si>
-    <t>Sargento de la Hermandad</t>
-  </si>
-  <si>
-    <t>Capitán de la guerrilla</t>
-  </si>
-  <si>
     <t>Supremo Radiante</t>
   </si>
   <si>
-    <t>Guerrero Oryx</t>
-  </si>
-  <si>
-    <t>Maestro del Agua Karif</t>
-  </si>
-  <si>
-    <t>Sultán de las llamas</t>
-  </si>
-  <si>
-    <t>Mahoma</t>
-  </si>
-  <si>
-    <t>Gran Mago de las Sombras</t>
-  </si>
-  <si>
-    <t>Guerrero del Sol</t>
-  </si>
-  <si>
-    <t>El Alquimista Dakn</t>
-  </si>
-  <si>
-    <t>El Caído</t>
-  </si>
-  <si>
-    <t>Caballero General</t>
-  </si>
-  <si>
-    <t>Rayo</t>
-  </si>
-  <si>
-    <t>Doncella Lagarto</t>
-  </si>
-  <si>
-    <t>Princesa de Hielo</t>
-  </si>
-  <si>
-    <t>Perseguidor del viento</t>
-  </si>
-  <si>
-    <t>Maestro cazador de recompensas</t>
-  </si>
-  <si>
-    <t>Maestro del Vacío Ifrit</t>
-  </si>
-  <si>
-    <t>Lo siento, pero no puedo traducir un texto que no está presente. Por favor, proporcione el texto que desea traducir y estaré encantado de ayudarle</t>
-  </si>
-  <si>
-    <t>Ifrit Gigante</t>
-  </si>
-  <si>
-    <t>Monstruo Shia</t>
-  </si>
-  <si>
     <t>Zaratustra</t>
   </si>
   <si>
-    <t>Capitán de la Hermandad del Desierto</t>
-  </si>
-  <si>
-    <t>Serpiente Gigante</t>
-  </si>
-  <si>
-    <t>Tótem de Araña: Ultra</t>
-  </si>
-  <si>
-    <t>Gran tótem del águila: Ultra</t>
-  </si>
-  <si>
-    <t>Tótem de Dragón: Ultra</t>
-  </si>
-  <si>
-    <t>Lagarto Monstruo</t>
-  </si>
-  <si>
-    <t>Esqueleto Bahar</t>
-  </si>
-  <si>
-    <t>Herbolario Dakn</t>
-  </si>
-  <si>
-    <t>Serpiente de Roca Gigante</t>
-  </si>
-  <si>
     <t>Golem Gigante</t>
   </si>
   <si>
-    <t>Bruja del desierto</t>
-  </si>
-  <si>
-    <t>Mago Ifrit</t>
-  </si>
-  <si>
-    <t>Bestia misteriosa</t>
-  </si>
-  <si>
-    <t>Cazador de recompensas</t>
-  </si>
-  <si>
-    <t>Gigante caído</t>
-  </si>
-  <si>
-    <t>Caballero andante</t>
-  </si>
-  <si>
-    <t>Hombre Fuerte de Cabello Largo</t>
-  </si>
-  <si>
-    <t>Hombre fuerte con cabello corto</t>
-  </si>
-  <si>
-    <t>Hombre fuerte calvo</t>
-  </si>
-  <si>
-    <t>Ifrit corto</t>
-  </si>
-  <si>
     <t>Ifrit alto</t>
   </si>
   <si>
-    <t>Líder de Grunt</t>
-  </si>
-  <si>
-    <t>Llama de Obsidiana</t>
-  </si>
-  <si>
-    <t>Araña gigante</t>
-  </si>
-  <si>
-    <t>Viuda de Blackrock</t>
-  </si>
-  <si>
-    <t>Diosa del río</t>
-  </si>
-  <si>
-    <t>Espectro de la Diosa</t>
-  </si>
-  <si>
-    <t>Guardia Dakn</t>
-  </si>
-  <si>
-    <t>Guardia Dhib</t>
-  </si>
-  <si>
-    <t>Guardia Ifrit</t>
-  </si>
-  <si>
-    <t>Sacerdote pagano</t>
-  </si>
-  <si>
-    <t>Ifrit Gran Mago</t>
-  </si>
-  <si>
-    <t>Mago de la Cuchilla de Viento</t>
-  </si>
-  <si>
-    <t>Anciano de la Cuchilla del Viento</t>
-  </si>
-  <si>
-    <t>Gigante de hielo</t>
-  </si>
-  <si>
-    <t>Caballero As</t>
-  </si>
-  <si>
     <t>Armas Arcanas</t>
   </si>
   <si>
-    <t>Monstruo</t>
-  </si>
-  <si>
-    <t>Guardián</t>
-  </si>
-  <si>
-    <t>Guardia Thur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardia Nasir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardia Akhal </t>
+    <t>Canis Cinzento</t>
+  </si>
+  <si>
+    <t>Capitão da Irmandade</t>
+  </si>
+  <si>
+    <t>Líder do incêndio florestal</t>
+  </si>
+  <si>
+    <t>Capitão do Fogo Selvagem</t>
+  </si>
+  <si>
+    <t>Destruidor de Fogo Selvagem</t>
+  </si>
+  <si>
+    <t>Sargento da Irmandade</t>
+  </si>
+  <si>
+    <t>Capitão Guerrilha</t>
+  </si>
+  <si>
+    <t>Guerreiro Órix</t>
+  </si>
+  <si>
+    <t>Mestre das Águas Karif</t>
+  </si>
+  <si>
+    <t>CHEFE</t>
+  </si>
+  <si>
+    <t>Mestre dos Bombeiros Subhan</t>
+  </si>
+  <si>
+    <t>Sultão Flamejante</t>
+  </si>
+  <si>
+    <t>Anal</t>
+  </si>
+  <si>
+    <t>Azize</t>
+  </si>
+  <si>
+    <t>Maomé</t>
+  </si>
+  <si>
+    <t>Grande Mago das Sombras</t>
+  </si>
+  <si>
+    <t>Sol Guerreiro</t>
+  </si>
+  <si>
+    <t>Alquimista Dakn</t>
+  </si>
+  <si>
+    <t>O Caído</t>
+  </si>
+  <si>
+    <t>Cavaleiro Geral</t>
+  </si>
+  <si>
+    <t>Raio</t>
+  </si>
+  <si>
+    <t>Donzela Lagarto</t>
+  </si>
+  <si>
+    <t>Princesa do gelo</t>
+  </si>
+  <si>
+    <t>Caça-vento</t>
+  </si>
+  <si>
+    <t>Mestre Caçador de Recompensas</t>
+  </si>
+  <si>
+    <t>Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Ifrit gigante</t>
+  </si>
+  <si>
+    <t>Monstro Xiita</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>Capitão da Irmandade do Deserto</t>
+  </si>
+  <si>
+    <t>Serpente Gigante</t>
+  </si>
+  <si>
+    <t>Totem Canino: Ultra</t>
+  </si>
+  <si>
+    <t>Totem de Aranha: Ultra</t>
+  </si>
+  <si>
+    <t>Totem da Grande Águia: Ultra</t>
+  </si>
+  <si>
+    <t>Totem do Dragão: Ultra</t>
+  </si>
+  <si>
+    <t>Lagarto Monstro</t>
+  </si>
+  <si>
+    <t>Bahar esquelético</t>
+  </si>
+  <si>
+    <t>Herbalista Dakn</t>
+  </si>
+  <si>
+    <t>Serpente Gigante da Rocha</t>
+  </si>
+  <si>
+    <t>Bruxa do Deserto</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Assistente Ifrit</t>
+  </si>
+  <si>
+    <t>Homem-Besta Misterioso</t>
+  </si>
+  <si>
+    <t>Caçador de Recompensa</t>
+  </si>
+  <si>
+    <t>Gigante Caído</t>
+  </si>
+  <si>
+    <t>Cavaleiro errante</t>
+  </si>
+  <si>
+    <t>Guerreiro Alpino - Ruha</t>
+  </si>
+  <si>
+    <t>Sultão Nasir - Husnu</t>
+  </si>
+  <si>
+    <t>Homem forte de cabelos compridos</t>
+  </si>
+  <si>
+    <t>Homem forte de cabelo cortado</t>
+  </si>
+  <si>
+    <t>Homem forte careca</t>
+  </si>
+  <si>
+    <t>Ifrit curto</t>
+  </si>
+  <si>
+    <t>Líder Grunhido</t>
+  </si>
+  <si>
+    <t>Chama Obsidiana</t>
+  </si>
+  <si>
+    <t>Aloísio</t>
+  </si>
+  <si>
+    <t>Aranha Gigante</t>
+  </si>
+  <si>
+    <t>Viúva Rocha Negra</t>
+  </si>
+  <si>
+    <t>Deusa do Rio</t>
+  </si>
+  <si>
+    <t>Espectro da Deusa</t>
+  </si>
+  <si>
+    <t>Guarda Negro</t>
+  </si>
+  <si>
+    <t>Guarda Akhal</t>
+  </si>
+  <si>
+    <t>Guarda Nasir</t>
+  </si>
+  <si>
+    <t>CHEFE 雄鹰守卫3</t>
+  </si>
+  <si>
+    <t>CHEFE 雄鹰守卫4</t>
+  </si>
+  <si>
+    <t>CHEFE 雄鹰守卫5</t>
+  </si>
+  <si>
+    <t>Quinta Guarda</t>
+  </si>
+  <si>
+    <t>Guarda Dhib</t>
+  </si>
+  <si>
+    <t>Guarda Ifrit</t>
+  </si>
+  <si>
+    <t>Sumo sacerdote pagão</t>
+  </si>
+  <si>
+    <t>Grande Mago Ifrit</t>
+  </si>
+  <si>
+    <t>Ghodja</t>
+  </si>
+  <si>
+    <t>Oli</t>
+  </si>
+  <si>
+    <t>Shaitan</t>
+  </si>
+  <si>
+    <t>Mago Lâmina de Vento</t>
+  </si>
+  <si>
+    <t>Ancião Lâmina de Vento</t>
+  </si>
+  <si>
+    <t>Gigante de Gelo</t>
+  </si>
+  <si>
+    <t>Ás Cavaleiro</t>
+  </si>
+  <si>
+    <t>Monstro</t>
+  </si>
+  <si>
+    <t>Guardião</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1231,8 +1174,42 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1249,8 +1226,19 @@
         <fgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF08080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1258,11 +1246,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1282,9 +1289,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{3BAE5A18-63DD-479A-A03C-FB36978C4F5C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1300,7 +1337,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1598,18 +1635,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -1628,10 +1665,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1643,2408 +1680,2102 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="F13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="G13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>326</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="22.5">
+      <c r="A14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="75">
-      <c r="A14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
+      <c r="G14" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.5">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>327</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="F16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="75">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:7" ht="22.5">
+      <c r="A17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G17" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.5">
+      <c r="A18" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="75">
-      <c r="A17" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="F18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="G18" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33.75">
+      <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="75">
-      <c r="A18" s="3" t="s">
+      <c r="C19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="F19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60">
-      <c r="A19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>328</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>52</v>
+      <c r="G19" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
+        <v>302</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="F20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="F21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="F22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
-        <v>330</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="C23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="F23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="75">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:7" ht="22.5">
+      <c r="A24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C22" t="s">
-        <v>331</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="C24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="F24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G24" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="60">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="F25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="75">
-      <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" t="s">
-        <v>70</v>
+      <c r="G25" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>335</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" t="s">
-        <v>73</v>
+        <v>308</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="F26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>336</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30">
+        <v>309</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="F27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" t="s">
-        <v>79</v>
+        <v>310</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="F28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>338</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30">
+        <v>311</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="F30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="F33" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>339</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="60">
-      <c r="A33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" t="s">
-        <v>95</v>
+      <c r="G33" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30">
       <c r="A34" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>341</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" t="s">
-        <v>98</v>
+        <v>314</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>341</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" t="s">
-        <v>98</v>
+        <v>314</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="30">
       <c r="A37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="F38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="F39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>317</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="F40" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="27">
+      <c r="A41" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C41" t="s">
         <v>104</v>
       </c>
-      <c r="C37" t="s">
-        <v>342</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="45">
-      <c r="A40" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>344</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" t="s">
-        <v>113</v>
+      <c r="D41" s="3"/>
+      <c r="F41" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>117</v>
+        <v>316</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>345</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30">
+        <v>318</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" t="s">
-        <v>121</v>
+        <v>107</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="F43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" t="s">
-        <v>125</v>
+        <v>319</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="F44" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>346</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" t="s">
-        <v>128</v>
+        <v>320</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="F45" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" t="s">
-        <v>131</v>
+        <v>321</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="F46" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>348</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" t="s">
-        <v>134</v>
+        <v>322</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="F47" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30">
       <c r="A48" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="75">
+        <v>123</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="F48" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="40.5">
       <c r="A49" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="F49" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>349</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
+        <v>324</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="F52" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30">
+      <c r="A53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>325</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="F53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="A54" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="F54" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="F55" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30">
+      <c r="A56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C56" t="s">
+        <v>327</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="F56" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G56" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="45">
-      <c r="A52" s="3" t="s">
+      <c r="C57" t="s">
+        <v>328</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="F57" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="G57" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30">
+      <c r="A58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C52" t="s">
-        <v>350</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45">
-      <c r="A53" s="3" t="s">
+      <c r="C58" t="s">
+        <v>329</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="F58" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" t="s">
-        <v>351</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="45">
-      <c r="A54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" t="s">
-        <v>352</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="75">
-      <c r="A55" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" t="s">
-        <v>353</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="75">
-      <c r="A56" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" t="s">
-        <v>354</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30">
-      <c r="A57" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="45">
-      <c r="A58" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" t="s">
-        <v>355</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G58" t="s">
-        <v>166</v>
+      <c r="G58" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30">
       <c r="A59" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
+        <v>330</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="F59" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="3" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
+        <v>331</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="F60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="A61" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>358</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G61" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30">
+        <v>332</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="F61" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>359</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" t="s">
-        <v>173</v>
+        <v>333</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="F62" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="3" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="A64" s="3" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="60">
+        <v>335</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:7" ht="30">
       <c r="A65" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>360</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G65" t="s">
-        <v>184</v>
+        <v>336</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="F65" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30">
       <c r="A66" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>361</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G66" t="s">
-        <v>173</v>
+        <v>337</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="F66" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30">
       <c r="A67" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>362</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G67" t="s">
-        <v>173</v>
+        <v>338</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="F67" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="A68" s="3" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>363</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="75">
+        <v>339</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="F68" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>364</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="60">
+        <v>285</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="F69" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="22.5">
       <c r="A70" s="3" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>365</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G70" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="60">
+        <v>340</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="22.5">
       <c r="A71" s="3" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G71" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="60">
+        <v>175</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="F71" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="22.5">
       <c r="A72" s="3" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>366</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G72" t="s">
-        <v>203</v>
+        <v>341</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="F72" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30">
       <c r="A73" s="3" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="F73" s="15"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="F74" s="15"/>
     </row>
     <row r="75" spans="1:7" ht="30">
       <c r="A75" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="60">
+        <v>182</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:7" ht="30">
       <c r="A76" s="3" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>332</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30">
+        <v>305</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="F76" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>367</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="60">
+        <v>343</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30">
       <c r="A78" s="3" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>332</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G78" t="s">
-        <v>64</v>
+        <v>305</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="F78" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="30">
       <c r="A79" s="3" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C79" t="s">
-        <v>368</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G79" t="s">
-        <v>214</v>
+        <v>344</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="F79" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
       <c r="A80" s="3" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>369</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G80" t="s">
-        <v>220</v>
+        <v>345</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="F80" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30">
       <c r="A81" s="3" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C81" t="s">
-        <v>370</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G81" t="s">
-        <v>223</v>
+        <v>346</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="F81" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30">
       <c r="A82" s="3" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>371</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" spans="1:7" ht="30">
       <c r="A83" s="3" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>371</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="1:7" ht="30">
       <c r="A84" s="3" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>371</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="A85" s="3" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>371</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:7" ht="30">
       <c r="A86" s="3" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>371</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="A87" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>385</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:7" ht="30">
       <c r="A88" s="3" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>385</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F88" s="9"/>
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>385</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="30">
       <c r="A90" s="3" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F90" s="9"/>
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="3" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>385</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:7" ht="30">
       <c r="A92" s="3" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C92" t="s">
-        <v>384</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="3" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s">
-        <v>384</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="1:7" ht="30">
       <c r="A94" s="3" t="s">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>384</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F94" s="9"/>
     </row>
     <row r="95" spans="1:7" ht="30">
       <c r="A95" s="3" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C95" t="s">
-        <v>384</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F95" s="9"/>
     </row>
     <row r="96" spans="1:7" ht="30">
       <c r="A96" s="3" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>384</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" spans="1:7" ht="30">
       <c r="A97" s="3" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C97" t="s">
-        <v>383</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G97" t="s">
-        <v>244</v>
+        <v>353</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30">
       <c r="A98" s="3" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G98" t="s">
-        <v>244</v>
+        <v>353</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="30">
       <c r="A99" s="3" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>383</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G99" t="s">
-        <v>244</v>
+        <v>353</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30">
       <c r="A100" s="3" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C100" t="s">
-        <v>383</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G100" t="s">
-        <v>244</v>
+        <v>353</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="30">
       <c r="A101" s="3" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C101" t="s">
-        <v>383</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G101" t="s">
-        <v>244</v>
+        <v>353</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="30">
       <c r="A102" s="3" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C102" t="s">
-        <v>372</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:7" ht="30">
       <c r="A103" s="3" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>372</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:7" ht="30">
       <c r="A104" s="3" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s">
-        <v>372</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:7" ht="30">
       <c r="A105" s="3" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C105" t="s">
-        <v>372</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F105" s="9"/>
     </row>
     <row r="106" spans="1:7" ht="30">
       <c r="A106" s="3" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C106" t="s">
-        <v>372</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F106" s="9"/>
     </row>
     <row r="107" spans="1:7" ht="30">
       <c r="A107" s="3" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>373</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="A108" s="3" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C108" t="s">
-        <v>373</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="1:7" ht="30">
       <c r="A109" s="3" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C109" t="s">
-        <v>373</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" spans="1:7" ht="30">
       <c r="A110" s="3" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>373</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="1:7" ht="30">
       <c r="A111" s="3" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>373</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="90">
+        <v>355</v>
+      </c>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" ht="33.75">
       <c r="A112" s="3" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C112" t="s">
-        <v>374</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G112" t="s">
-        <v>263</v>
+        <v>356</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="F112" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="30">
       <c r="A113" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>375</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G113" t="s">
-        <v>38</v>
+        <v>357</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="F113" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="F114" s="13"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="30">
+        <v>239</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="3" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G116" t="s">
-        <v>274</v>
+        <v>358</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="F116" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30">
       <c r="A117" s="3" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="F117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="30">
       <c r="A118" s="3" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G118" t="s">
-        <v>279</v>
+        <v>360</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="30">
       <c r="A119" s="3" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>282</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G119" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="30">
+        <v>249</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="C120" t="s">
-        <v>286</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G120" t="s">
-        <v>287</v>
+        <v>252</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="30">
       <c r="A121" s="3" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>376</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G121" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="30">
+        <v>361</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="F121" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="3" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>377</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G122" t="s">
-        <v>107</v>
+        <v>362</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="F122" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30">
       <c r="A123" s="3" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>317</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G123" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="F123" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30">
       <c r="A124" s="3" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
-        <v>378</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G124" t="s">
-        <v>296</v>
+        <v>363</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="F124" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="30">
       <c r="A125" s="3" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="C125" t="s">
-        <v>379</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:7" ht="30">
       <c r="A126" s="3" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:7" ht="30">
       <c r="A127" s="3" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C127" t="s">
-        <v>380</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:7" ht="30">
       <c r="A128" s="3" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C128" t="s">
-        <v>380</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:7" ht="30">
       <c r="A129" s="3" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C129" t="s">
-        <v>380</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:7" ht="30">
       <c r="A130" s="3" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C130" t="s">
-        <v>380</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:7" ht="30">
       <c r="A131" s="3" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C131" t="s">
-        <v>380</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:7" ht="30">
       <c r="A132" s="3" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C132" t="s">
-        <v>380</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:7" ht="30">
       <c r="A133" s="3" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>380</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="F133" s="9"/>
     </row>
     <row r="134" spans="1:7" ht="30">
       <c r="A134" s="3" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C134" t="s">
-        <v>380</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:7" ht="30">
       <c r="A135" s="3" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
-        <v>380</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="F135" s="9"/>
     </row>
     <row r="136" spans="1:7" ht="30">
       <c r="A136" s="3" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C136" t="s">
-        <v>381</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G136" t="s">
-        <v>312</v>
+        <v>365</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="F136" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="30">
       <c r="A137" s="3" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="C137" t="s">
-        <v>382</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="F137" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_Boss_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_Boss_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9166E38-B892-468B-99F5-8B391D4913AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A58CF3-A9E0-444F-8E0C-C08EC2D95119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="386">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -60,6 +60,9 @@
     <t>狼</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>黑崖狼穴狼王</t>
   </si>
   <si>
@@ -126,7 +129,13 @@
     <t>dg_skill:dg水流打击,1</t>
   </si>
   <si>
+    <t>BOSS苏德</t>
+  </si>
+  <si>
     <t>火法师苏德</t>
+  </si>
+  <si>
+    <t>Firemaster Subhan</t>
   </si>
   <si>
     <t>dg_skill:dg烈焰打击,1
@@ -148,10 +157,16 @@
     <t>阿尔斯楞</t>
   </si>
   <si>
+    <t>Anass</t>
+  </si>
+  <si>
     <t>dg_skill:dg狼王攻击,1
 attached_script:BOSS狼王_基础挂载</t>
   </si>
   <si>
+    <t>BOSS阿希格</t>
+  </si>
+  <si>
     <t>阿希格</t>
   </si>
   <si>
@@ -159,6 +174,9 @@
 attached_script:BOSS阿希格_基础挂载</t>
   </si>
   <si>
+    <t>BOSS贺希格</t>
+  </si>
+  <si>
     <t>贺希格</t>
   </si>
   <si>
@@ -227,6 +245,9 @@
 attached_script:BOSS_枪骑士挂载</t>
   </si>
   <si>
+    <t>BOSS马</t>
+  </si>
+  <si>
     <t>马</t>
   </si>
   <si>
@@ -249,6 +270,9 @@
   </si>
   <si>
     <t>dg_skill:T冰矛冰公主,2</t>
+  </si>
+  <si>
+    <t>BOSS追风</t>
   </si>
   <si>
     <t>追风</t>
@@ -319,6 +343,9 @@
     <t>BOSS巨型火魔人2</t>
   </si>
   <si>
+    <t>BOSS萧雅</t>
+  </si>
+  <si>
     <t>萧雅</t>
   </si>
   <si>
@@ -331,12 +358,18 @@
     <t>怪物雾依</t>
   </si>
   <si>
+    <t>BOSS幕牙</t>
+  </si>
+  <si>
     <t>幕牙</t>
   </si>
   <si>
     <t>dg_skill:黑暗弹三,1</t>
   </si>
   <si>
+    <t>BOSS阿楚</t>
+  </si>
+  <si>
     <t>阿楚</t>
   </si>
   <si>
@@ -352,12 +385,18 @@
     <t>attached_script:BOSS蛮族战神5</t>
   </si>
   <si>
+    <t>BOSS马契</t>
+  </si>
+  <si>
     <t>马契</t>
   </si>
   <si>
     <t>Muna</t>
   </si>
   <si>
+    <t>BOSS巨蛇</t>
+  </si>
+  <si>
     <t>巨蛇</t>
   </si>
   <si>
@@ -374,6 +413,9 @@
   </si>
   <si>
     <t>魔狼图腾·极</t>
+  </si>
+  <si>
+    <t>Canis Totem: Ultra</t>
   </si>
   <si>
     <t>dg_skill:NEW野性之魂魔狼普攻,1</t>
@@ -431,6 +473,9 @@
     <t>怪蜥蜴</t>
   </si>
   <si>
+    <t>BOSS莫尼</t>
+  </si>
+  <si>
     <t>莫尼</t>
   </si>
   <si>
@@ -481,9 +526,15 @@
 attached_script:新主线沙漠巫婆</t>
   </si>
   <si>
+    <t>BOSS阿月</t>
+  </si>
+  <si>
     <t>阿月</t>
   </si>
   <si>
+    <t>Isra</t>
+  </si>
+  <si>
     <t>dg_skill:射月矢,1</t>
   </si>
   <si>
@@ -517,13 +568,28 @@
     <t>dg_skill:剑豪BOSS黑暗弹三</t>
   </si>
   <si>
+    <t>BOSS剑豪</t>
+  </si>
+  <si>
     <t>剑豪</t>
   </si>
   <si>
+    <t>BOSS封凛</t>
+  </si>
+  <si>
     <t>雪山战神-封凛</t>
   </si>
   <si>
+    <t>Alpine Warmonger - Ruha</t>
+  </si>
+  <si>
+    <t>BOSS霍驹</t>
+  </si>
+  <si>
     <t>雄鹰领主-霍驹</t>
+  </si>
+  <si>
+    <t>Nasir Sultan - Husnu</t>
   </si>
   <si>
     <t>BOSS长头发壮汉</t>
@@ -564,6 +630,9 @@
 attached_script:大个子火魔BOSS</t>
   </si>
   <si>
+    <t>BOSS咕噜</t>
+  </si>
+  <si>
     <t>咕噜首领</t>
   </si>
   <si>
@@ -571,6 +640,9 @@
 attached_script:废墟世界BOSS</t>
   </si>
   <si>
+    <t>BOSS霍翎</t>
+  </si>
+  <si>
     <t>霍翎</t>
   </si>
   <si>
@@ -581,6 +653,9 @@
 attached_script:霍翎战斗</t>
   </si>
   <si>
+    <t>BOSS黑火</t>
+  </si>
+  <si>
     <t>黑火</t>
   </si>
   <si>
@@ -594,6 +669,12 @@
     <t>埃尔修斯</t>
   </si>
   <si>
+    <t>Aloysius</t>
+  </si>
+  <si>
+    <t>BOSS银珊</t>
+  </si>
+  <si>
     <t>银珊</t>
   </si>
   <si>
@@ -606,6 +687,9 @@
     <t>BOSS堕落者黑火</t>
   </si>
   <si>
+    <t>BOSS大蜘蛛</t>
+  </si>
+  <si>
     <t>大蜘蛛</t>
   </si>
   <si>
@@ -682,6 +766,15 @@
   </si>
   <si>
     <t>BOSS雄鹰守卫2</t>
+  </si>
+  <si>
+    <t>BOSS雄鹰守卫3</t>
+  </si>
+  <si>
+    <t>BOSS雄鹰守卫4</t>
+  </si>
+  <si>
+    <t>BOSS雄鹰守卫5</t>
   </si>
   <si>
     <t>BOSS蛮牛守卫1</t>
@@ -766,12 +859,18 @@
     <t>Kun'na</t>
   </si>
   <si>
+    <t>BOSS巴洛</t>
+  </si>
+  <si>
     <t>巴洛</t>
   </si>
   <si>
     <t>Burak</t>
   </si>
   <si>
+    <t>BOSS国锡</t>
+  </si>
+  <si>
     <t>国锡</t>
   </si>
   <si>
@@ -805,6 +904,9 @@
     <t>dg_skill:冰矛,1</t>
   </si>
   <si>
+    <t>BOSS巫灵</t>
+  </si>
+  <si>
     <t>巫灵</t>
   </si>
   <si>
@@ -820,6 +922,9 @@
     <t>风刃巫师</t>
   </si>
   <si>
+    <t>BOSS风刃长老</t>
+  </si>
+  <si>
     <t>风刃长老</t>
   </si>
   <si>
@@ -898,266 +1003,218 @@
     <t>Lobo Alfa</t>
   </si>
   <si>
+    <t>Canis Gris</t>
+  </si>
+  <si>
+    <t>Capitán de la Hermandad</t>
+  </si>
+  <si>
+    <t>Líder de incendios forestales</t>
+  </si>
+  <si>
+    <t>Capitán de Incendios Forestales</t>
+  </si>
+  <si>
+    <t>Fuego Salvaje</t>
+  </si>
+  <si>
+    <t>Sargento de la Hermandad</t>
+  </si>
+  <si>
+    <t>Capitán de la guerrilla</t>
+  </si>
+  <si>
     <t>Supremo Radiante</t>
   </si>
   <si>
+    <t>Guerrero Oryx</t>
+  </si>
+  <si>
+    <t>Maestro del Agua Karif</t>
+  </si>
+  <si>
+    <t>Sultán de las llamas</t>
+  </si>
+  <si>
+    <t>Mahoma</t>
+  </si>
+  <si>
+    <t>Gran Mago de las Sombras</t>
+  </si>
+  <si>
+    <t>Guerrero del Sol</t>
+  </si>
+  <si>
+    <t>El Alquimista Dakn</t>
+  </si>
+  <si>
+    <t>El Caído</t>
+  </si>
+  <si>
+    <t>Caballero General</t>
+  </si>
+  <si>
+    <t>Rayo</t>
+  </si>
+  <si>
+    <t>Doncella Lagarto</t>
+  </si>
+  <si>
+    <t>Princesa de Hielo</t>
+  </si>
+  <si>
+    <t>Perseguidor del viento</t>
+  </si>
+  <si>
+    <t>Maestro cazador de recompensas</t>
+  </si>
+  <si>
+    <t>Maestro del Vacío Ifrit</t>
+  </si>
+  <si>
+    <t>Lo siento, pero no puedo traducir un texto que no está presente. Por favor, proporcione el texto que desea traducir y estaré encantado de ayudarle</t>
+  </si>
+  <si>
+    <t>Ifrit Gigante</t>
+  </si>
+  <si>
+    <t>Monstruo Shia</t>
+  </si>
+  <si>
     <t>Zaratustra</t>
   </si>
   <si>
+    <t>Capitán de la Hermandad del Desierto</t>
+  </si>
+  <si>
+    <t>Serpiente Gigante</t>
+  </si>
+  <si>
+    <t>Tótem de Araña: Ultra</t>
+  </si>
+  <si>
+    <t>Gran tótem del águila: Ultra</t>
+  </si>
+  <si>
+    <t>Tótem de Dragón: Ultra</t>
+  </si>
+  <si>
+    <t>Lagarto Monstruo</t>
+  </si>
+  <si>
+    <t>Esqueleto Bahar</t>
+  </si>
+  <si>
+    <t>Herbolario Dakn</t>
+  </si>
+  <si>
+    <t>Serpiente de Roca Gigante</t>
+  </si>
+  <si>
     <t>Golem Gigante</t>
   </si>
   <si>
+    <t>Bruja del desierto</t>
+  </si>
+  <si>
+    <t>Mago Ifrit</t>
+  </si>
+  <si>
+    <t>Bestia misteriosa</t>
+  </si>
+  <si>
+    <t>Cazador de recompensas</t>
+  </si>
+  <si>
+    <t>Gigante caído</t>
+  </si>
+  <si>
+    <t>Caballero andante</t>
+  </si>
+  <si>
+    <t>Hombre Fuerte de Cabello Largo</t>
+  </si>
+  <si>
+    <t>Hombre fuerte con cabello corto</t>
+  </si>
+  <si>
+    <t>Hombre fuerte calvo</t>
+  </si>
+  <si>
+    <t>Ifrit corto</t>
+  </si>
+  <si>
     <t>Ifrit alto</t>
   </si>
   <si>
+    <t>Líder de Grunt</t>
+  </si>
+  <si>
+    <t>Llama de Obsidiana</t>
+  </si>
+  <si>
+    <t>Araña gigante</t>
+  </si>
+  <si>
+    <t>Viuda de Blackrock</t>
+  </si>
+  <si>
+    <t>Diosa del río</t>
+  </si>
+  <si>
+    <t>Espectro de la Diosa</t>
+  </si>
+  <si>
+    <t>Guardia Dakn</t>
+  </si>
+  <si>
+    <t>Guardia Dhib</t>
+  </si>
+  <si>
+    <t>Guardia Ifrit</t>
+  </si>
+  <si>
+    <t>Sacerdote pagano</t>
+  </si>
+  <si>
+    <t>Ifrit Gran Mago</t>
+  </si>
+  <si>
+    <t>Mago de la Cuchilla de Viento</t>
+  </si>
+  <si>
+    <t>Anciano de la Cuchilla del Viento</t>
+  </si>
+  <si>
+    <t>Gigante de hielo</t>
+  </si>
+  <si>
+    <t>Caballero As</t>
+  </si>
+  <si>
     <t>Armas Arcanas</t>
   </si>
   <si>
-    <t>Canis Cinzento</t>
-  </si>
-  <si>
-    <t>Capitão da Irmandade</t>
-  </si>
-  <si>
-    <t>Líder do incêndio florestal</t>
-  </si>
-  <si>
-    <t>Capitão do Fogo Selvagem</t>
-  </si>
-  <si>
-    <t>Destruidor de Fogo Selvagem</t>
-  </si>
-  <si>
-    <t>Sargento da Irmandade</t>
-  </si>
-  <si>
-    <t>Capitão Guerrilha</t>
-  </si>
-  <si>
-    <t>Guerreiro Órix</t>
-  </si>
-  <si>
-    <t>Mestre das Águas Karif</t>
-  </si>
-  <si>
-    <t>CHEFE</t>
-  </si>
-  <si>
-    <t>Mestre dos Bombeiros Subhan</t>
-  </si>
-  <si>
-    <t>Sultão Flamejante</t>
-  </si>
-  <si>
-    <t>Anal</t>
-  </si>
-  <si>
-    <t>Azize</t>
-  </si>
-  <si>
-    <t>Maomé</t>
-  </si>
-  <si>
-    <t>Grande Mago das Sombras</t>
-  </si>
-  <si>
-    <t>Sol Guerreiro</t>
-  </si>
-  <si>
-    <t>Alquimista Dakn</t>
-  </si>
-  <si>
-    <t>O Caído</t>
-  </si>
-  <si>
-    <t>Cavaleiro Geral</t>
-  </si>
-  <si>
-    <t>Raio</t>
-  </si>
-  <si>
-    <t>Donzela Lagarto</t>
-  </si>
-  <si>
-    <t>Princesa do gelo</t>
-  </si>
-  <si>
-    <t>Caça-vento</t>
-  </si>
-  <si>
-    <t>Mestre Caçador de Recompensas</t>
-  </si>
-  <si>
-    <t>Mestre do Vazio Ifrit</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Ifrit gigante</t>
-  </si>
-  <si>
-    <t>Monstro Xiita</t>
-  </si>
-  <si>
-    <t>BOSS</t>
-  </si>
-  <si>
-    <t>Capitão da Irmandade do Deserto</t>
-  </si>
-  <si>
-    <t>Serpente Gigante</t>
-  </si>
-  <si>
-    <t>Totem Canino: Ultra</t>
-  </si>
-  <si>
-    <t>Totem de Aranha: Ultra</t>
-  </si>
-  <si>
-    <t>Totem da Grande Águia: Ultra</t>
-  </si>
-  <si>
-    <t>Totem do Dragão: Ultra</t>
-  </si>
-  <si>
-    <t>Lagarto Monstro</t>
-  </si>
-  <si>
-    <t>Bahar esquelético</t>
-  </si>
-  <si>
-    <t>Herbalista Dakn</t>
-  </si>
-  <si>
-    <t>Serpente Gigante da Rocha</t>
-  </si>
-  <si>
-    <t>Bruxa do Deserto</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Assistente Ifrit</t>
-  </si>
-  <si>
-    <t>Homem-Besta Misterioso</t>
-  </si>
-  <si>
-    <t>Caçador de Recompensa</t>
-  </si>
-  <si>
-    <t>Gigante Caído</t>
-  </si>
-  <si>
-    <t>Cavaleiro errante</t>
-  </si>
-  <si>
-    <t>Guerreiro Alpino - Ruha</t>
-  </si>
-  <si>
-    <t>Sultão Nasir - Husnu</t>
-  </si>
-  <si>
-    <t>Homem forte de cabelos compridos</t>
-  </si>
-  <si>
-    <t>Homem forte de cabelo cortado</t>
-  </si>
-  <si>
-    <t>Homem forte careca</t>
-  </si>
-  <si>
-    <t>Ifrit curto</t>
-  </si>
-  <si>
-    <t>Líder Grunhido</t>
-  </si>
-  <si>
-    <t>Chama Obsidiana</t>
-  </si>
-  <si>
-    <t>Aloísio</t>
-  </si>
-  <si>
-    <t>Aranha Gigante</t>
-  </si>
-  <si>
-    <t>Viúva Rocha Negra</t>
-  </si>
-  <si>
-    <t>Deusa do Rio</t>
-  </si>
-  <si>
-    <t>Espectro da Deusa</t>
-  </si>
-  <si>
-    <t>Guarda Negro</t>
-  </si>
-  <si>
-    <t>Guarda Akhal</t>
-  </si>
-  <si>
-    <t>Guarda Nasir</t>
-  </si>
-  <si>
-    <t>CHEFE 雄鹰守卫3</t>
-  </si>
-  <si>
-    <t>CHEFE 雄鹰守卫4</t>
-  </si>
-  <si>
-    <t>CHEFE 雄鹰守卫5</t>
-  </si>
-  <si>
-    <t>Quinta Guarda</t>
-  </si>
-  <si>
-    <t>Guarda Dhib</t>
-  </si>
-  <si>
-    <t>Guarda Ifrit</t>
-  </si>
-  <si>
-    <t>Sumo sacerdote pagão</t>
-  </si>
-  <si>
-    <t>Grande Mago Ifrit</t>
-  </si>
-  <si>
-    <t>Ghodja</t>
-  </si>
-  <si>
-    <t>Oli</t>
-  </si>
-  <si>
-    <t>Shaitan</t>
-  </si>
-  <si>
-    <t>Mago Lâmina de Vento</t>
-  </si>
-  <si>
-    <t>Ancião Lâmina de Vento</t>
-  </si>
-  <si>
-    <t>Gigante de Gelo</t>
-  </si>
-  <si>
-    <t>Ás Cavaleiro</t>
-  </si>
-  <si>
-    <t>Monstro</t>
-  </si>
-  <si>
-    <t>Guardião</t>
+    <t>Monstruo</t>
+  </si>
+  <si>
+    <t>Guardián</t>
+  </si>
+  <si>
+    <t>Guardia Thur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardia Nasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardia Akhal </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1174,42 +1231,8 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,19 +1249,8 @@
         <fgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF08080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1246,30 +1258,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1289,39 +1282,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{3BAE5A18-63DD-479A-A03C-FB36978C4F5C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,7 +1300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1635,18 +1598,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -1665,10 +1628,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1680,2102 +1643,2408 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="F2" s="9"/>
+        <v>315</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="F3" s="9"/>
+        <v>316</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="F4" s="9"/>
+        <v>317</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="11"/>
+        <v>318</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="11"/>
+        <v>319</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="11"/>
+        <v>320</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="11"/>
+        <v>321</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="F9" s="11"/>
+        <v>322</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="F10" s="11"/>
+        <v>323</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="F11" s="11"/>
+        <v>324</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:7">
+        <v>325</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="F13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.5">
+        <v>326</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75">
       <c r="A14" s="3" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="F14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="F15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="22.5">
+        <v>327</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="F16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.5">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75">
       <c r="A17" s="3" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="F17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.5">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75">
       <c r="A18" s="3" t="s">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="F18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33.75">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="F19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>46</v>
+        <v>328</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="F20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>49</v>
+        <v>329</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="F21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30">
+        <v>330</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="F22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30">
+        <v>331</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="F23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="22.5">
+        <v>332</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="F24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>333</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30">
       <c r="A25" s="3" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="F25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>63</v>
+        <v>334</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>308</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="F26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>66</v>
+        <v>335</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="F27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>336</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="3" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="F28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>71</v>
+        <v>337</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>338</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="F30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30">
+        <v>89</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>312</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
+        <v>339</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>313</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="F33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>87</v>
+        <v>340</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30">
       <c r="A34" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>314</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>90</v>
+        <v>341</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>314</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>90</v>
+        <v>341</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="F36" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="30">
       <c r="A37" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>315</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>342</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" s="3" t="s">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="F38" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>343</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="3" t="s">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="F39" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
+        <v>110</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45">
       <c r="A40" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>317</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="F40" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="27">
+        <v>344</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45">
       <c r="A41" s="3" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="F41" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>316</v>
+        <v>117</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>318</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:7">
+        <v>345</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30">
       <c r="A43" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="F43" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>108</v>
+        <v>120</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="F44" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>320</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="F45" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>114</v>
+        <v>346</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>321</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="F46" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>117</v>
+        <v>347</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>322</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="F47" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>120</v>
+        <v>348</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30">
       <c r="A48" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="F48" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="40.5">
+        <v>137</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="75">
       <c r="A49" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="F49" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>126</v>
+        <v>137</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>323</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="F50" s="9"/>
+        <v>349</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>296</v>
+        <v>143</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" ht="30">
+        <v>145</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45">
       <c r="A52" s="3" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>324</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="F52" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30">
+        <v>350</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45">
       <c r="A53" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>325</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="F53" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
+        <v>351</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45">
       <c r="A54" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>326</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="F54" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30">
+        <v>352</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="75">
       <c r="A55" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>284</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="F55" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30">
+        <v>353</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="75">
       <c r="A56" s="3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>327</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="F56" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>354</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30">
       <c r="A57" s="3" t="s">
-        <v>316</v>
+        <v>160</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>328</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="F57" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30">
+        <v>162</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45">
       <c r="A58" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>329</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="F58" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>149</v>
+        <v>355</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30">
       <c r="A59" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>330</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="F59" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>74</v>
+        <v>356</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="3" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>331</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="F60" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>74</v>
+        <v>357</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="A61" s="3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>332</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="F61" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>358</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30">
       <c r="A62" s="3" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>333</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="F62" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>156</v>
+        <v>359</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="3" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>334</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="F63" s="15"/>
+        <v>178</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="A64" s="3" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>335</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" spans="1:7" ht="30">
+        <v>181</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60">
       <c r="A65" s="3" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="F65" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>162</v>
+        <v>360</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>337</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="F66" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>156</v>
+        <v>361</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>338</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="F67" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>156</v>
+        <v>362</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G67" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="A68" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>339</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="F68" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30">
+        <v>363</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="75">
       <c r="A69" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>285</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="F69" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="22.5">
+        <v>364</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60">
       <c r="A70" s="3" t="s">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>340</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="22.5">
+        <v>365</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="60">
       <c r="A71" s="3" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="F71" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="22.5">
+        <v>199</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="60">
       <c r="A72" s="3" t="s">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>341</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="F72" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>178</v>
+        <v>366</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G72" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30">
       <c r="A73" s="3" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
-        <v>342</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="F73" s="15"/>
+        <v>206</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="F74" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="30">
       <c r="A75" s="3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="F75" s="15"/>
-    </row>
-    <row r="76" spans="1:7" ht="30">
+        <v>209</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60">
       <c r="A76" s="3" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="F76" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>332</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30">
       <c r="A77" s="3" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>343</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30">
+        <v>367</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="60">
       <c r="A78" s="3" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>305</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="F78" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>58</v>
+        <v>332</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="30">
       <c r="A79" s="3" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>344</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="F79" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>186</v>
+        <v>368</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
       <c r="A80" s="3" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="F80" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>192</v>
+        <v>369</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G80" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30">
       <c r="A81" s="3" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C81" t="s">
-        <v>346</v>
-      </c>
-      <c r="D81" s="3"/>
-      <c r="F81" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>195</v>
+        <v>370</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G81" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30">
       <c r="A82" s="3" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
-      </c>
-      <c r="F82" s="9"/>
+        <v>371</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="30">
       <c r="A83" s="3" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C83" t="s">
-        <v>347</v>
-      </c>
-      <c r="F83" s="9"/>
+        <v>371</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="30">
       <c r="A84" s="3" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
-        <v>347</v>
-      </c>
-      <c r="F84" s="9"/>
+        <v>371</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="A85" s="3" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s">
-        <v>347</v>
-      </c>
-      <c r="F85" s="9"/>
+        <v>371</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="30">
       <c r="A86" s="3" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>347</v>
-      </c>
-      <c r="F86" s="9"/>
+        <v>371</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="A87" s="3" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s">
-        <v>348</v>
-      </c>
-      <c r="F87" s="9"/>
+        <v>385</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" spans="1:7" ht="30">
       <c r="A88" s="3" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C88" t="s">
-        <v>348</v>
-      </c>
-      <c r="F88" s="9"/>
+        <v>385</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="3" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s">
-        <v>348</v>
-      </c>
-      <c r="F89" s="9"/>
+        <v>385</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="30">
       <c r="A90" s="3" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
-        <v>348</v>
-      </c>
-      <c r="F90" s="9"/>
+        <v>385</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="3" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
-        <v>348</v>
-      </c>
-      <c r="F91" s="9"/>
+        <v>385</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="92" spans="1:7" ht="30">
       <c r="A92" s="3" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
-        <v>349</v>
-      </c>
-      <c r="F92" s="9"/>
+        <v>384</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="3" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>349</v>
-      </c>
-      <c r="F93" s="9"/>
+        <v>384</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="94" spans="1:7" ht="30">
       <c r="A94" s="3" t="s">
-        <v>350</v>
+        <v>239</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>349</v>
-      </c>
-      <c r="F94" s="9"/>
+        <v>384</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:7" ht="30">
       <c r="A95" s="3" t="s">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C95" t="s">
-        <v>349</v>
-      </c>
-      <c r="F95" s="9"/>
+        <v>384</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="96" spans="1:7" ht="30">
       <c r="A96" s="3" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C96" t="s">
-        <v>349</v>
-      </c>
-      <c r="F96" s="9"/>
+        <v>384</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="97" spans="1:7" ht="30">
       <c r="A97" s="3" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C97" t="s">
-        <v>353</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>213</v>
+        <v>383</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G97" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30">
       <c r="A98" s="3" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C98" t="s">
-        <v>353</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>213</v>
+        <v>383</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G98" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="30">
       <c r="A99" s="3" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s">
-        <v>353</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>213</v>
+        <v>383</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G99" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30">
       <c r="A100" s="3" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C100" t="s">
-        <v>353</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>213</v>
+        <v>383</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G100" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="30">
       <c r="A101" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C101" t="s">
-        <v>353</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>213</v>
+        <v>383</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G101" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="30">
       <c r="A102" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>354</v>
-      </c>
-      <c r="F102" s="9"/>
+        <v>372</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="103" spans="1:7" ht="30">
       <c r="A103" s="3" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>354</v>
-      </c>
-      <c r="F103" s="9"/>
+        <v>372</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="104" spans="1:7" ht="30">
       <c r="A104" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>354</v>
-      </c>
-      <c r="F104" s="9"/>
+        <v>372</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="105" spans="1:7" ht="30">
       <c r="A105" s="3" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>354</v>
-      </c>
-      <c r="F105" s="9"/>
+        <v>372</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="106" spans="1:7" ht="30">
       <c r="A106" s="3" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>354</v>
-      </c>
-      <c r="F106" s="9"/>
+        <v>372</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="107" spans="1:7" ht="30">
       <c r="A107" s="3" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C107" t="s">
-        <v>355</v>
-      </c>
-      <c r="F107" s="9"/>
+        <v>373</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="A108" s="3" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>355</v>
-      </c>
-      <c r="F108" s="9"/>
+        <v>373</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="109" spans="1:7" ht="30">
       <c r="A109" s="3" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>355</v>
-      </c>
-      <c r="F109" s="9"/>
+        <v>373</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="110" spans="1:7" ht="30">
       <c r="A110" s="3" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C110" t="s">
-        <v>355</v>
-      </c>
-      <c r="F110" s="9"/>
+        <v>373</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="111" spans="1:7" ht="30">
       <c r="A111" s="3" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C111" t="s">
-        <v>355</v>
-      </c>
-      <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="1:7" ht="33.75">
+        <v>373</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="90">
       <c r="A112" s="3" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C112" t="s">
-        <v>356</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="F112" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>232</v>
+        <v>374</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G112" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="30">
       <c r="A113" s="3" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>357</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="F113" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>35</v>
+        <v>375</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
-      </c>
-      <c r="D114" s="3"/>
-      <c r="F114" s="13"/>
+        <v>268</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="F115" s="13"/>
-    </row>
-    <row r="116" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30">
       <c r="A116" s="3" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="C116" t="s">
-        <v>358</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="F116" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>241</v>
+        <v>9</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G116" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30">
       <c r="A117" s="3" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
-        <v>359</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="F117" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="118" spans="1:7" ht="30">
       <c r="A118" s="3" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="C118" t="s">
-        <v>360</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>246</v>
+        <v>9</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G118" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="30">
       <c r="A119" s="3" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="C119" t="s">
-        <v>249</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>282</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G119" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30">
       <c r="A120" s="3" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>253</v>
+        <v>286</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G120" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="30">
       <c r="A121" s="3" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="C121" t="s">
-        <v>361</v>
-      </c>
-      <c r="D121" s="3"/>
-      <c r="F121" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>376</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G121" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30">
       <c r="A122" s="3" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="C122" t="s">
-        <v>362</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="F122" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>97</v>
+        <v>377</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G122" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30">
       <c r="A123" s="3" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>287</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="F123" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>258</v>
+        <v>317</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G123" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30">
       <c r="A124" s="3" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>363</v>
-      </c>
-      <c r="D124" s="3"/>
-      <c r="F124" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>261</v>
+        <v>378</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G124" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="30">
       <c r="A125" s="3" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="C125" t="s">
-        <v>364</v>
-      </c>
-      <c r="F125" s="9"/>
+        <v>379</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="126" spans="1:7" ht="30">
       <c r="A126" s="3" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C126" t="s">
-        <v>286</v>
-      </c>
-      <c r="D126" s="3"/>
-      <c r="F126" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="127" spans="1:7" ht="30">
       <c r="A127" s="3" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C127" t="s">
-        <v>286</v>
-      </c>
-      <c r="D127" s="3"/>
-      <c r="F127" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="128" spans="1:7" ht="30">
       <c r="A128" s="3" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C128" t="s">
-        <v>286</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="F128" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="129" spans="1:7" ht="30">
       <c r="A129" s="3" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C129" t="s">
-        <v>286</v>
-      </c>
-      <c r="D129" s="3"/>
-      <c r="F129" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="130" spans="1:7" ht="30">
       <c r="A130" s="3" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C130" t="s">
-        <v>286</v>
-      </c>
-      <c r="D130" s="3"/>
-      <c r="F130" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="131" spans="1:7" ht="30">
       <c r="A131" s="3" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C131" t="s">
-        <v>286</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="F131" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="132" spans="1:7" ht="30">
       <c r="A132" s="3" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C132" t="s">
-        <v>286</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="F132" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="133" spans="1:7" ht="30">
       <c r="A133" s="3" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C133" t="s">
-        <v>286</v>
-      </c>
-      <c r="D133" s="3"/>
-      <c r="F133" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="134" spans="1:7" ht="30">
       <c r="A134" s="3" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C134" t="s">
-        <v>286</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="F134" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="135" spans="1:7" ht="30">
       <c r="A135" s="3" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C135" t="s">
-        <v>286</v>
-      </c>
-      <c r="D135" s="3"/>
-      <c r="F135" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="136" spans="1:7" ht="30">
       <c r="A136" s="3" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C136" t="s">
-        <v>365</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="F136" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>277</v>
+        <v>381</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G136" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="30">
       <c r="A137" s="3" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="C137" t="s">
-        <v>366</v>
-      </c>
-      <c r="F137" s="9"/>
+        <v>382</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_Boss_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_Boss_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A58CF3-A9E0-444F-8E0C-C08EC2D95119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1267AD-B486-4646-A793-461C2B041DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="1785" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="386">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>火法师苏德</t>
-  </si>
-  <si>
-    <t>Firemaster Subhan</t>
   </si>
   <si>
     <t>dg_skill:dg烈焰打击,1
@@ -157,9 +154,6 @@
     <t>阿尔斯楞</t>
   </si>
   <si>
-    <t>Anass</t>
-  </si>
-  <si>
     <t>dg_skill:dg狼王攻击,1
 attached_script:BOSS狼王_基础挂载</t>
   </si>
@@ -415,9 +409,6 @@
     <t>魔狼图腾·极</t>
   </si>
   <si>
-    <t>Canis Totem: Ultra</t>
-  </si>
-  <si>
     <t>dg_skill:NEW野性之魂魔狼普攻,1</t>
   </si>
   <si>
@@ -532,9 +523,6 @@
     <t>阿月</t>
   </si>
   <si>
-    <t>Isra</t>
-  </si>
-  <si>
     <t>dg_skill:射月矢,1</t>
   </si>
   <si>
@@ -580,16 +568,10 @@
     <t>雪山战神-封凛</t>
   </si>
   <si>
-    <t>Alpine Warmonger - Ruha</t>
-  </si>
-  <si>
     <t>BOSS霍驹</t>
   </si>
   <si>
     <t>雄鹰领主-霍驹</t>
-  </si>
-  <si>
-    <t>Nasir Sultan - Husnu</t>
   </si>
   <si>
     <t>BOSS长头发壮汉</t>
@@ -669,9 +651,6 @@
     <t>埃尔修斯</t>
   </si>
   <si>
-    <t>Aloysius</t>
-  </si>
-  <si>
     <t>BOSS银珊</t>
   </si>
   <si>
@@ -1003,211 +982,232 @@
     <t>Lobo Alfa</t>
   </si>
   <si>
-    <t>Canis Gris</t>
-  </si>
-  <si>
-    <t>Capitán de la Hermandad</t>
-  </si>
-  <si>
-    <t>Líder de incendios forestales</t>
-  </si>
-  <si>
-    <t>Capitán de Incendios Forestales</t>
-  </si>
-  <si>
-    <t>Fuego Salvaje</t>
-  </si>
-  <si>
-    <t>Sargento de la Hermandad</t>
-  </si>
-  <si>
-    <t>Capitán de la guerrilla</t>
-  </si>
-  <si>
     <t>Supremo Radiante</t>
   </si>
   <si>
-    <t>Guerrero Oryx</t>
-  </si>
-  <si>
-    <t>Maestro del Agua Karif</t>
-  </si>
-  <si>
-    <t>Sultán de las llamas</t>
-  </si>
-  <si>
-    <t>Mahoma</t>
-  </si>
-  <si>
-    <t>Gran Mago de las Sombras</t>
-  </si>
-  <si>
-    <t>Guerrero del Sol</t>
-  </si>
-  <si>
-    <t>El Alquimista Dakn</t>
-  </si>
-  <si>
-    <t>El Caído</t>
-  </si>
-  <si>
-    <t>Caballero General</t>
-  </si>
-  <si>
-    <t>Rayo</t>
-  </si>
-  <si>
-    <t>Doncella Lagarto</t>
-  </si>
-  <si>
-    <t>Princesa de Hielo</t>
-  </si>
-  <si>
-    <t>Perseguidor del viento</t>
-  </si>
-  <si>
-    <t>Maestro cazador de recompensas</t>
-  </si>
-  <si>
-    <t>Maestro del Vacío Ifrit</t>
-  </si>
-  <si>
-    <t>Lo siento, pero no puedo traducir un texto que no está presente. Por favor, proporcione el texto que desea traducir y estaré encantado de ayudarle</t>
-  </si>
-  <si>
-    <t>Ifrit Gigante</t>
-  </si>
-  <si>
-    <t>Monstruo Shia</t>
-  </si>
-  <si>
     <t>Zaratustra</t>
   </si>
   <si>
-    <t>Capitán de la Hermandad del Desierto</t>
-  </si>
-  <si>
-    <t>Serpiente Gigante</t>
-  </si>
-  <si>
-    <t>Tótem de Araña: Ultra</t>
-  </si>
-  <si>
-    <t>Gran tótem del águila: Ultra</t>
-  </si>
-  <si>
-    <t>Tótem de Dragón: Ultra</t>
-  </si>
-  <si>
-    <t>Lagarto Monstruo</t>
-  </si>
-  <si>
-    <t>Esqueleto Bahar</t>
-  </si>
-  <si>
-    <t>Herbolario Dakn</t>
-  </si>
-  <si>
-    <t>Serpiente de Roca Gigante</t>
-  </si>
-  <si>
     <t>Golem Gigante</t>
   </si>
   <si>
-    <t>Bruja del desierto</t>
-  </si>
-  <si>
-    <t>Mago Ifrit</t>
-  </si>
-  <si>
-    <t>Bestia misteriosa</t>
-  </si>
-  <si>
-    <t>Cazador de recompensas</t>
-  </si>
-  <si>
-    <t>Gigante caído</t>
-  </si>
-  <si>
-    <t>Caballero andante</t>
-  </si>
-  <si>
-    <t>Hombre Fuerte de Cabello Largo</t>
-  </si>
-  <si>
-    <t>Hombre fuerte con cabello corto</t>
-  </si>
-  <si>
-    <t>Hombre fuerte calvo</t>
-  </si>
-  <si>
-    <t>Ifrit corto</t>
-  </si>
-  <si>
-    <t>Ifrit alto</t>
-  </si>
-  <si>
-    <t>Líder de Grunt</t>
-  </si>
-  <si>
-    <t>Llama de Obsidiana</t>
-  </si>
-  <si>
-    <t>Araña gigante</t>
-  </si>
-  <si>
-    <t>Viuda de Blackrock</t>
-  </si>
-  <si>
-    <t>Diosa del río</t>
-  </si>
-  <si>
-    <t>Espectro de la Diosa</t>
-  </si>
-  <si>
-    <t>Guardia Dakn</t>
-  </si>
-  <si>
-    <t>Guardia Dhib</t>
-  </si>
-  <si>
-    <t>Guardia Ifrit</t>
-  </si>
-  <si>
-    <t>Sacerdote pagano</t>
-  </si>
-  <si>
-    <t>Ifrit Gran Mago</t>
-  </si>
-  <si>
-    <t>Mago de la Cuchilla de Viento</t>
-  </si>
-  <si>
-    <t>Anciano de la Cuchilla del Viento</t>
-  </si>
-  <si>
-    <t>Gigante de hielo</t>
-  </si>
-  <si>
-    <t>Caballero As</t>
-  </si>
-  <si>
     <t>Armas Arcanas</t>
   </si>
   <si>
-    <t>Monstruo</t>
-  </si>
-  <si>
-    <t>Guardián</t>
-  </si>
-  <si>
-    <t>Guardia Thur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardia Nasir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardia Akhal </t>
+    <t>Canis Cinzento</t>
+  </si>
+  <si>
+    <t>Capitão da Irmandade</t>
+  </si>
+  <si>
+    <t>Líder de incêndio florestal</t>
+  </si>
+  <si>
+    <t>Capitão dos Bombeiros Florestais</t>
+  </si>
+  <si>
+    <t>Incêndios</t>
+  </si>
+  <si>
+    <t>Sargento da Irmandade</t>
+  </si>
+  <si>
+    <t>capitão guerrilheiro</t>
+  </si>
+  <si>
+    <t>Guerreiro Órix</t>
+  </si>
+  <si>
+    <t>Mestre da Água Karif</t>
+  </si>
+  <si>
+    <t>Mestre dos Bombeiros Subhan</t>
+  </si>
+  <si>
+    <t>Sultão das chamas</t>
+  </si>
+  <si>
+    <t>Anal</t>
+  </si>
+  <si>
+    <t>Maomé</t>
+  </si>
+  <si>
+    <t>Grande Mago das Sombras</t>
+  </si>
+  <si>
+    <t>Guerreiro do Sol</t>
+  </si>
+  <si>
+    <t>O Alquimista Dakn</t>
+  </si>
+  <si>
+    <t>Os caídos</t>
+  </si>
+  <si>
+    <t>Cavaleiro Geral</t>
+  </si>
+  <si>
+    <t>Raio</t>
+  </si>
+  <si>
+    <t>Donzela Lagarto</t>
+  </si>
+  <si>
+    <t>Princesa do gelo</t>
+  </si>
+  <si>
+    <t>Caçador de vento</t>
+  </si>
+  <si>
+    <t>Mestre caçador de recompensas</t>
+  </si>
+  <si>
+    <t>Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>Sinto muito, mas não consigo traduzir um texto que não está presente. Forneça o texto que você deseja traduzir e ficarei feliz em ajudá-lo</t>
+  </si>
+  <si>
+    <t>Ifrit gigante</t>
+  </si>
+  <si>
+    <t>Monstro Xiita</t>
+  </si>
+  <si>
+    <t>Capitão da Irmandade do Deserto</t>
+  </si>
+  <si>
+    <t>Cobra Gigante</t>
+  </si>
+  <si>
+    <t>Totem Canino: Ultra</t>
+  </si>
+  <si>
+    <t>Totem de Aranha: Ultra</t>
+  </si>
+  <si>
+    <t>Totem da Grande Águia: Ultra</t>
+  </si>
+  <si>
+    <t>Totem do Dragão: Ultra</t>
+  </si>
+  <si>
+    <t>Lagarto Monstro</t>
+  </si>
+  <si>
+    <t>Esqueleto de Bahar</t>
+  </si>
+  <si>
+    <t>Herbalista Dakn</t>
+  </si>
+  <si>
+    <t>Cobra Gigante da Rocha</t>
+  </si>
+  <si>
+    <t>bruxa do deserto</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Assistente Ifrit</t>
+  </si>
+  <si>
+    <t>besta misteriosa</t>
+  </si>
+  <si>
+    <t>Caçador de Recompensa</t>
+  </si>
+  <si>
+    <t>gigante caído</t>
+  </si>
+  <si>
+    <t>Cavaleiro andante</t>
+  </si>
+  <si>
+    <t>Guerreiro Alpino - Ruha</t>
+  </si>
+  <si>
+    <t>Sultão Nasir - Husnu</t>
+  </si>
+  <si>
+    <t>Homem forte de cabelos compridos</t>
+  </si>
+  <si>
+    <t>Homem forte com cabelo curto</t>
+  </si>
+  <si>
+    <t>Homem forte e careca</t>
+  </si>
+  <si>
+    <t>ifrit curto</t>
+  </si>
+  <si>
+    <t>alto ifrit</t>
+  </si>
+  <si>
+    <t>Líder Grunhido</t>
+  </si>
+  <si>
+    <t>Chama Obsidiana</t>
+  </si>
+  <si>
+    <t>Aloísio</t>
+  </si>
+  <si>
+    <t>aranha gigante</t>
+  </si>
+  <si>
+    <t>Viúva Rocha Negra</t>
+  </si>
+  <si>
+    <t>deusa do rio</t>
+  </si>
+  <si>
+    <t>Espectro da Deusa</t>
+  </si>
+  <si>
+    <t>Guarda Negro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guarda Akhal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guarda Nasir</t>
+  </si>
+  <si>
+    <t>Quinta Guarda</t>
+  </si>
+  <si>
+    <t>Guarda Dhib</t>
+  </si>
+  <si>
+    <t>Guarda Ifrit</t>
+  </si>
+  <si>
+    <t>sacerdote pagão</t>
+  </si>
+  <si>
+    <t>Ifrit Grande Mago</t>
+  </si>
+  <si>
+    <t>Mago da Lâmina de Vento</t>
+  </si>
+  <si>
+    <t>Ancião da Lâmina do Vento</t>
+  </si>
+  <si>
+    <t>gigante de gelo</t>
+  </si>
+  <si>
+    <t>Ás Cavaleiro</t>
+  </si>
+  <si>
+    <t>Monstro</t>
+  </si>
+  <si>
+    <t>Guardião</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1598,14 +1598,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="134.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
@@ -1643,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1660,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -1677,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -1694,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -1711,7 +1711,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -1728,7 +1728,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -1745,7 +1745,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -1762,7 +1762,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
@@ -1779,7 +1779,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -1796,7 +1796,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
@@ -1813,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
@@ -1830,7 +1830,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -1850,432 +1850,429 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>327</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="75">
       <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="75">
       <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="75">
       <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60">
       <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>328</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>330</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="75">
       <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>331</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60">
       <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="75">
       <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>335</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>336</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>338</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="75">
       <c r="A32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>337</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>339</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60">
       <c r="A33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30">
       <c r="A34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>339</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>341</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
         <v>100</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -2286,110 +2283,110 @@
     </row>
     <row r="37" spans="1:7" ht="30">
       <c r="A37" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30">
       <c r="A39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="45">
       <c r="A40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>344</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45">
       <c r="A41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -2400,153 +2397,153 @@
     </row>
     <row r="43" spans="1:7" ht="30">
       <c r="A43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="G43" t="s">
         <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="G44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30">
       <c r="A48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="G48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="75">
       <c r="A49" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
@@ -2557,13 +2554,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
@@ -2574,233 +2571,233 @@
     </row>
     <row r="52" spans="1:7" ht="45">
       <c r="A52" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45">
       <c r="A53" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="75">
       <c r="A55" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="75">
       <c r="A56" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30">
       <c r="A57" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>352</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G57" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45">
       <c r="A58" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30">
       <c r="A59" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="A61" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="A62" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G62" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>358</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>9</v>
@@ -2811,13 +2808,13 @@
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="A64" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>9</v>
@@ -2828,10 +2825,10 @@
     </row>
     <row r="65" spans="1:7" ht="60">
       <c r="A65" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C65" t="s">
         <v>360</v>
@@ -2840,18 +2837,18 @@
         <v>9</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G65" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30">
       <c r="A66" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
         <v>361</v>
@@ -2860,18 +2857,18 @@
         <v>9</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30">
       <c r="A67" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
         <v>362</v>
@@ -2880,18 +2877,18 @@
         <v>9</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G67" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
       <c r="A68" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
         <v>363</v>
@@ -2900,18 +2897,18 @@
         <v>9</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="75">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
         <v>364</v>
@@ -2920,55 +2917,55 @@
         <v>9</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="60">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="75">
       <c r="A70" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
         <v>365</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G70" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="60">
       <c r="A71" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G71" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="60">
       <c r="A72" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
         <v>366</v>
@@ -2977,21 +2974,21 @@
         <v>9</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30">
       <c r="A73" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>367</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>9</v>
@@ -3002,13 +2999,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>9</v>
@@ -3019,13 +3016,13 @@
     </row>
     <row r="75" spans="1:7" ht="30">
       <c r="A75" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>9</v>
@@ -3036,130 +3033,130 @@
     </row>
     <row r="76" spans="1:7" ht="60">
       <c r="A76" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30">
       <c r="A77" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G77" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="60">
       <c r="A78" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="30">
       <c r="A79" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G79" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45">
       <c r="A80" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G80" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30">
       <c r="A81" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G81" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30">
       <c r="A82" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>9</v>
@@ -3167,13 +3164,13 @@
     </row>
     <row r="83" spans="1:7" ht="30">
       <c r="A83" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C83" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>9</v>
@@ -3181,13 +3178,13 @@
     </row>
     <row r="84" spans="1:7" ht="30">
       <c r="A84" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>9</v>
@@ -3195,13 +3192,13 @@
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="A85" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C85" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>9</v>
@@ -3209,13 +3206,13 @@
     </row>
     <row r="86" spans="1:7" ht="30">
       <c r="A86" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>9</v>
@@ -3223,13 +3220,13 @@
     </row>
     <row r="87" spans="1:7" ht="30">
       <c r="A87" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>9</v>
@@ -3237,13 +3234,13 @@
     </row>
     <row r="88" spans="1:7" ht="30">
       <c r="A88" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>9</v>
@@ -3251,13 +3248,13 @@
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>9</v>
@@ -3265,13 +3262,13 @@
     </row>
     <row r="90" spans="1:7" ht="30">
       <c r="A90" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>9</v>
@@ -3279,13 +3276,13 @@
     </row>
     <row r="91" spans="1:7" ht="30">
       <c r="A91" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>9</v>
@@ -3293,13 +3290,13 @@
     </row>
     <row r="92" spans="1:7" ht="30">
       <c r="A92" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>9</v>
@@ -3307,13 +3304,13 @@
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>9</v>
@@ -3321,13 +3318,13 @@
     </row>
     <row r="94" spans="1:7" ht="30">
       <c r="A94" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>9</v>
@@ -3335,13 +3332,13 @@
     </row>
     <row r="95" spans="1:7" ht="30">
       <c r="A95" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C95" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>9</v>
@@ -3349,13 +3346,13 @@
     </row>
     <row r="96" spans="1:7" ht="30">
       <c r="A96" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>9</v>
@@ -3363,98 +3360,98 @@
     </row>
     <row r="97" spans="1:7" ht="30">
       <c r="A97" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C97" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G97" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30">
       <c r="A98" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G98" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="30">
       <c r="A99" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C99" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G99" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30">
       <c r="A100" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C100" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G100" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="30">
       <c r="A101" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G101" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="30">
       <c r="A102" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>9</v>
@@ -3462,13 +3459,13 @@
     </row>
     <row r="103" spans="1:7" ht="30">
       <c r="A103" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>9</v>
@@ -3476,13 +3473,13 @@
     </row>
     <row r="104" spans="1:7" ht="30">
       <c r="A104" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C104" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>9</v>
@@ -3490,13 +3487,13 @@
     </row>
     <row r="105" spans="1:7" ht="30">
       <c r="A105" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C105" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>9</v>
@@ -3504,13 +3501,13 @@
     </row>
     <row r="106" spans="1:7" ht="30">
       <c r="A106" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C106" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>9</v>
@@ -3518,13 +3515,13 @@
     </row>
     <row r="107" spans="1:7" ht="30">
       <c r="A107" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>9</v>
@@ -3532,13 +3529,13 @@
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="A108" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C108" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>9</v>
@@ -3546,13 +3543,13 @@
     </row>
     <row r="109" spans="1:7" ht="30">
       <c r="A109" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>9</v>
@@ -3560,13 +3557,13 @@
     </row>
     <row r="110" spans="1:7" ht="30">
       <c r="A110" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>9</v>
@@ -3574,13 +3571,13 @@
     </row>
     <row r="111" spans="1:7" ht="30">
       <c r="A111" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>9</v>
@@ -3588,53 +3585,53 @@
     </row>
     <row r="112" spans="1:7" ht="90">
       <c r="A112" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G112" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="30">
       <c r="A113" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C113" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>9</v>
@@ -3645,13 +3642,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>9</v>
@@ -3662,33 +3659,27 @@
     </row>
     <row r="116" spans="1:7" ht="30">
       <c r="A116" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C116" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G116" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30">
       <c r="A117" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C117" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>9</v>
@@ -3699,144 +3690,141 @@
     </row>
     <row r="118" spans="1:7" ht="30">
       <c r="A118" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C118" t="s">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G118" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="30">
       <c r="A119" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C119" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G119" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="30">
       <c r="A120" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C120" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G120" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="30">
       <c r="A121" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C121" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G121" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30">
       <c r="A122" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C122" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G122" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30">
       <c r="A123" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G123" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30">
       <c r="A124" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C124" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G124" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="30">
       <c r="A125" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C125" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>9</v>
@@ -3844,13 +3832,13 @@
     </row>
     <row r="126" spans="1:7" ht="30">
       <c r="A126" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>9</v>
@@ -3861,13 +3849,13 @@
     </row>
     <row r="127" spans="1:7" ht="30">
       <c r="A127" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C127" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>9</v>
@@ -3878,13 +3866,13 @@
     </row>
     <row r="128" spans="1:7" ht="30">
       <c r="A128" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C128" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>9</v>
@@ -3895,13 +3883,13 @@
     </row>
     <row r="129" spans="1:7" ht="30">
       <c r="A129" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C129" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>9</v>
@@ -3912,13 +3900,13 @@
     </row>
     <row r="130" spans="1:7" ht="30">
       <c r="A130" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C130" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>9</v>
@@ -3929,13 +3917,13 @@
     </row>
     <row r="131" spans="1:7" ht="30">
       <c r="A131" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C131" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>9</v>
@@ -3946,13 +3934,13 @@
     </row>
     <row r="132" spans="1:7" ht="30">
       <c r="A132" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C132" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>9</v>
@@ -3963,13 +3951,13 @@
     </row>
     <row r="133" spans="1:7" ht="30">
       <c r="A133" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C133" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>9</v>
@@ -3980,13 +3968,13 @@
     </row>
     <row r="134" spans="1:7" ht="30">
       <c r="A134" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C134" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>9</v>
@@ -3997,13 +3985,13 @@
     </row>
     <row r="135" spans="1:7" ht="30">
       <c r="A135" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C135" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>9</v>
@@ -4014,33 +4002,33 @@
     </row>
     <row r="136" spans="1:7" ht="30">
       <c r="A136" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C136" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G136" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="30">
       <c r="A137" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C137" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>9</v>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_Boss_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_Boss_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65160586-5F3C-4BAA-9C40-51C1F5459A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0FA7EA-8978-43BB-84B7-84EA35D3FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -998,25 +998,25 @@
     <t>Lobo Alfa</t>
   </si>
   <si>
-    <t>Canis Cinzento</t>
+    <t>Canis Cinza</t>
   </si>
   <si>
     <t>Capitão da Irmandade</t>
   </si>
   <si>
-    <t>Líder dos Píromantes</t>
-  </si>
-  <si>
-    <t>Capitão dos Píromantes</t>
-  </si>
-  <si>
-    <t>Brutamontes Píromante</t>
+    <t>Líder do Fogo Selvagem</t>
+  </si>
+  <si>
+    <t>Capitão do Fogo Selvagem</t>
+  </si>
+  <si>
+    <t>Bruto do Fogo Selvagem</t>
   </si>
   <si>
     <t>Sargento da Irmandade</t>
   </si>
   <si>
-    <t>Capitão da Guerrilha</t>
+    <t>Capitão Guerrilheiro</t>
   </si>
   <si>
     <t>Supremo Radiante</t>
@@ -1034,7 +1034,7 @@
     <t>Sultão das Chamas</t>
   </si>
   <si>
-    <t>Grande Mago das Sombras</t>
+    <t>Grande Mago da Sombra</t>
   </si>
   <si>
     <t>Guerreiro do Sol</t>
@@ -1049,7 +1049,7 @@
     <t>General Cavaleiro</t>
   </si>
   <si>
-    <t>Raio Trovejante</t>
+    <t>Raio</t>
   </si>
   <si>
     <t>Donzela Lagarto</t>
@@ -1058,16 +1058,16 @@
     <t>Princesa do Gelo</t>
   </si>
   <si>
-    <t>Caçadora do Vento</t>
+    <t>Perseguidor do Vento</t>
   </si>
   <si>
     <t>Mestre Caçador de Recompensas</t>
   </si>
   <si>
-    <t>Mestre do Vácuo Ifrit</t>
-  </si>
-  <si>
-    <t>Ifrit Gigante</t>
+    <t>Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>Gigante Ifrit</t>
   </si>
   <si>
     <t>Monstro Shia</t>
@@ -1082,16 +1082,16 @@
     <t>Totem Canis: Ultra</t>
   </si>
   <si>
-    <t>Totem Aranha: Ultra</t>
-  </si>
-  <si>
-    <t>Totem Grande Águia: Ultra</t>
-  </si>
-  <si>
-    <t>Totem Dragão: Ultra</t>
-  </si>
-  <si>
-    <t>Lagarto Monstruoso</t>
+    <t>Totem da Grande Águia: Ultra</t>
+  </si>
+  <si>
+    <t>Totem do Dragão: Ultra</t>
+  </si>
+  <si>
+    <t>Totem da Aranha: Ultra</t>
+  </si>
+  <si>
+    <t>Monstro Lagarto</t>
   </si>
   <si>
     <t>Bahar Esquelético</t>
@@ -1100,7 +1100,7 @@
     <t>Herbalista Dakn</t>
   </si>
   <si>
-    <t>Serpente Gigante da Rocha</t>
+    <t>Serpente  de Pedra Gigante</t>
   </si>
   <si>
     <t>Golem Gigante</t>
@@ -1109,6 +1109,9 @@
     <t>Bruxa do Deserto</t>
   </si>
   <si>
+    <t>Mago Ifrit</t>
+  </si>
+  <si>
     <t>Homem-Besta Misterioso</t>
   </si>
   <si>
@@ -1136,13 +1139,13 @@
     <t>Homem Forte Careca</t>
   </si>
   <si>
-    <t>Ifrit Baixo</t>
-  </si>
-  <si>
-    <t>Ifrit Alto</t>
-  </si>
-  <si>
-    <t>Líder dos Soldados Rasos</t>
+    <t>Grande Ifrit</t>
+  </si>
+  <si>
+    <t>Pequeno Ifrit</t>
+  </si>
+  <si>
+    <t>Líder dos Grunts</t>
   </si>
   <si>
     <t>Chama Obsidiana</t>
@@ -1151,7 +1154,7 @@
     <t>Aranha Gigante</t>
   </si>
   <si>
-    <t>Viúva-Negra Rochosa</t>
+    <t>Viúva-Negra de Rocha Negra</t>
   </si>
   <si>
     <t>Deusa do Rio</t>
@@ -1160,28 +1163,25 @@
     <t>Espectro da Deusa</t>
   </si>
   <si>
-    <t>Guarda Dakn</t>
-  </si>
-  <si>
-    <t>Guarda Akhal</t>
-  </si>
-  <si>
-    <t>Guarda Nasir</t>
-  </si>
-  <si>
-    <t>Guarda Thur</t>
-  </si>
-  <si>
-    <t>Guarda Dhib</t>
-  </si>
-  <si>
-    <t>Guarda Ifrit</t>
-  </si>
-  <si>
-    <t>Sumo Sacerdote Pagão</t>
-  </si>
-  <si>
-    <t>Mago Ifrit</t>
+    <t>Guarda dos Dakn</t>
+  </si>
+  <si>
+    <t>Guarda dos Akhal</t>
+  </si>
+  <si>
+    <t>Guarda dos Thur</t>
+  </si>
+  <si>
+    <t>Guarda dos Dhib</t>
+  </si>
+  <si>
+    <t>Guarda dos Ifrit</t>
+  </si>
+  <si>
+    <t>Guarda de Nasir</t>
+  </si>
+  <si>
+    <t>Sacerdote Pagão</t>
   </si>
   <si>
     <t>Grande Mago Ifrit</t>
@@ -1199,7 +1199,7 @@
     <t>Cavaleiro Ás</t>
   </si>
   <si>
-    <t>Armas Arcanas</t>
+    <t>Braços Arcanos</t>
   </si>
   <si>
     <t>Monstro</t>
@@ -1810,14 +1810,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
@@ -1989,7 +1988,7 @@
       <c r="D12" s="7"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="33.75">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -2007,7 +2006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.5">
+    <row r="14" spans="1:7" ht="78.75">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.5">
+    <row r="15" spans="1:7" ht="33.75">
       <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="22.5">
+    <row r="16" spans="1:7" ht="78.75">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33.75">
+    <row r="19" spans="1:7" ht="67.5">
       <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="22.5">
+    <row r="20" spans="1:7" ht="33.75">
       <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.5">
+    <row r="21" spans="1:7" ht="33.75">
       <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="22.5">
+    <row r="22" spans="1:7" ht="67.5">
       <c r="A22" s="10" t="s">
         <v>59</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22.5">
+    <row r="23" spans="1:7" ht="56.25">
       <c r="A23" s="10" t="s">
         <v>62</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="22.5">
+    <row r="24" spans="1:7" ht="67.5">
       <c r="A24" s="10" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="33.75">
       <c r="A25" s="8" t="s">
         <v>68</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="33.75">
       <c r="A27" s="10" t="s">
         <v>74</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="22.5">
       <c r="A28" s="10" t="s">
         <v>77</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22.5">
+    <row r="29" spans="1:7" ht="33.75">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="33.75">
       <c r="A30" s="8" t="s">
         <v>83</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="22.5">
+    <row r="31" spans="1:7" ht="33.75">
       <c r="A31" s="8" t="s">
         <v>87</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="22.5">
+    <row r="32" spans="1:7" ht="67.5">
       <c r="A32" s="8" t="s">
         <v>90</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="22.5">
+    <row r="33" spans="1:7" ht="56.25">
       <c r="A33" s="8" t="s">
         <v>93</v>
       </c>
@@ -2411,7 +2410,7 @@
       <c r="D36" s="14"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="22.5">
+    <row r="37" spans="1:7" ht="33.75">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="22.5">
       <c r="A38" s="8" t="s">
         <v>106</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="40.5">
       <c r="A39" s="15" t="s">
         <v>110</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="40.5">
+    <row r="40" spans="1:7" ht="54">
       <c r="A40" s="14" t="s">
         <v>113</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="27">
+    <row r="41" spans="1:7" ht="54">
       <c r="A41" s="14" t="s">
         <v>116</v>
       </c>
@@ -2513,7 +2512,7 @@
       <c r="D42" s="14"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="40.5">
       <c r="A43" s="14" t="s">
         <v>121</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>128</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D45" s="18"/>
       <c r="F45" s="19" t="s">
@@ -2575,7 +2574,7 @@
         <v>131</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" s="18"/>
       <c r="F46" s="19" t="s">
@@ -2593,7 +2592,7 @@
         <v>134</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47" s="18"/>
       <c r="F47" s="19" t="s">
@@ -2603,7 +2602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27">
+    <row r="48" spans="1:7" ht="40.5">
       <c r="A48" s="14" t="s">
         <v>136</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="40.5">
+    <row r="49" spans="1:7" ht="94.5">
       <c r="A49" s="14" t="s">
         <v>140</v>
       </c>
@@ -2665,7 +2664,7 @@
       <c r="D51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="22.5">
+    <row r="52" spans="1:7" ht="45">
       <c r="A52" s="8" t="s">
         <v>147</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="22.5">
+    <row r="53" spans="1:7" ht="45">
       <c r="A53" s="8" t="s">
         <v>150</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="22.5">
+    <row r="54" spans="1:7" ht="45">
       <c r="A54" s="8" t="s">
         <v>153</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="22.5">
+    <row r="55" spans="1:7" ht="67.5">
       <c r="A55" s="8" t="s">
         <v>155</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="22.5">
+    <row r="56" spans="1:7" ht="56.25">
       <c r="A56" s="8" t="s">
         <v>158</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="40.5">
       <c r="A57" s="20" t="s">
         <v>161</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="22.5">
+    <row r="58" spans="1:7" ht="33.75">
       <c r="A58" s="1" t="s">
         <v>165</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>166</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D58" s="2"/>
       <c r="F58" s="2" t="s">
@@ -2791,7 +2790,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="22.5">
+    <row r="59" spans="1:7" ht="33.75">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>169</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -2809,7 +2808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="22.5">
+    <row r="60" spans="1:7" ht="33.75">
       <c r="A60" s="1" t="s">
         <v>170</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>171</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D60" s="2"/>
       <c r="F60" s="2" t="s">
@@ -2827,7 +2826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="22.5">
+    <row r="61" spans="1:7" ht="33.75">
       <c r="A61" s="8" t="s">
         <v>172</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>173</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D61" s="9"/>
       <c r="F61" s="9" t="s">
@@ -2845,7 +2844,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="33.75">
       <c r="A62" s="8" t="s">
         <v>175</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>176</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D62" s="9"/>
       <c r="F62" s="9" t="s">
@@ -2871,7 +2870,7 @@
         <v>178</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D63" s="24"/>
       <c r="F63" s="23"/>
@@ -2884,12 +2883,12 @@
         <v>180</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D64" s="24"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="1:7" ht="22.5">
+    <row r="65" spans="1:7" ht="67.5">
       <c r="A65" s="8" t="s">
         <v>181</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>182</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D65" s="9"/>
       <c r="F65" s="9" t="s">
@@ -2907,7 +2906,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="22.5">
+    <row r="66" spans="1:7" ht="33.75">
       <c r="A66" s="8" t="s">
         <v>184</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>185</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D66" s="9"/>
       <c r="F66" s="9" t="s">
@@ -2925,7 +2924,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="22.5">
+    <row r="67" spans="1:7" ht="33.75">
       <c r="A67" s="8" t="s">
         <v>186</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>187</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D67" s="9"/>
       <c r="F67" s="9" t="s">
@@ -2943,7 +2942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="22.5">
+    <row r="68" spans="1:7" ht="33.75">
       <c r="A68" s="8" t="s">
         <v>188</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>189</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D68" s="9"/>
       <c r="F68" s="9" t="s">
@@ -2961,7 +2960,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="22.5">
+    <row r="69" spans="1:7" ht="67.5">
       <c r="A69" s="8" t="s">
         <v>190</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="22.5">
+    <row r="70" spans="1:7" ht="67.5">
       <c r="A70" s="1" t="s">
         <v>193</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>194</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>195</v>
@@ -2996,7 +2995,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="22.5">
+    <row r="71" spans="1:7" ht="56.25">
       <c r="A71" s="8" t="s">
         <v>196</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="22.5">
+    <row r="72" spans="1:7" ht="56.25">
       <c r="A72" s="8" t="s">
         <v>200</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>201</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D72" s="9"/>
       <c r="F72" s="9" t="s">
@@ -3071,7 +3070,7 @@
       <c r="D75" s="21"/>
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="1:7" ht="22.5">
+    <row r="76" spans="1:7" ht="56.25">
       <c r="A76" s="8" t="s">
         <v>210</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" ht="33.75">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>212</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>213</v>
@@ -3106,7 +3105,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="22.5">
+    <row r="78" spans="1:7" ht="56.25">
       <c r="A78" s="8" t="s">
         <v>214</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="22.5">
+    <row r="79" spans="1:7" ht="33.75">
       <c r="A79" s="1" t="s">
         <v>215</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>216</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D79" s="2"/>
       <c r="F79" s="2" t="s">
@@ -3142,7 +3141,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27">
+    <row r="80" spans="1:7" ht="54">
       <c r="A80" s="20" t="s">
         <v>217</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>218</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D80" s="21"/>
       <c r="F80" s="21" t="s">
@@ -3168,7 +3167,7 @@
         <v>221</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D81" s="21"/>
       <c r="F81" s="21" t="s">
@@ -3186,7 +3185,7 @@
         <v>224</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -3198,7 +3197,7 @@
         <v>224</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -3210,7 +3209,7 @@
         <v>224</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3222,7 +3221,7 @@
         <v>224</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F85" s="2"/>
     </row>
@@ -3234,7 +3233,7 @@
         <v>224</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F86" s="2"/>
     </row>
@@ -3246,7 +3245,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F87" s="2"/>
     </row>
@@ -3258,7 +3257,7 @@
         <v>230</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F88" s="2"/>
     </row>
@@ -3270,7 +3269,7 @@
         <v>230</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -3282,7 +3281,7 @@
         <v>230</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3294,7 +3293,7 @@
         <v>230</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -3306,7 +3305,7 @@
         <v>236</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F92" s="2"/>
     </row>
@@ -3318,7 +3317,7 @@
         <v>236</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F93" s="2"/>
     </row>
@@ -3330,7 +3329,7 @@
         <v>236</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F94" s="2"/>
     </row>
@@ -3342,7 +3341,7 @@
         <v>236</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F95" s="2"/>
     </row>
@@ -3354,7 +3353,7 @@
         <v>236</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3392,7 +3391,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="33.75">
+    <row r="99" spans="1:7" ht="22.5">
       <c r="A99" s="1" t="s">
         <v>245</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="33.75">
+    <row r="100" spans="1:7" ht="22.5">
       <c r="A100" s="1" t="s">
         <v>246</v>
       </c>
@@ -3571,7 +3570,7 @@
         <v>261</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D112" s="9"/>
       <c r="F112" s="9" t="s">
@@ -3581,7 +3580,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="22.5">
+    <row r="113" spans="1:7" ht="33.75">
       <c r="A113" s="8" t="s">
         <v>263</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="33.75">
       <c r="A120" s="1" t="s">
         <v>286</v>
       </c>
@@ -3921,7 +3920,7 @@
       <c r="D135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:7" ht="27">
+    <row r="136" spans="1:7" ht="40.5">
       <c r="A136" s="15" t="s">
         <v>312</v>
       </c>
@@ -3953,5 +3952,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>